--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Java Algotithms\DataStructureProblems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
     <t>Collection and Array</t>
   </si>
   <si>
-    <t>Iter done</t>
+    <t>Iter,Recursive done</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1528,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1538,12 +1538,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,7 +1554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1601,14 +1595,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1826,31 +1812,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="49.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1861,12 +1847,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +1866,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1894,7 +1880,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -1908,7 +1894,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1908,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +1922,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -1950,21 +1936,21 @@
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1975,7 +1961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1986,7 +1972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1997,7 +1983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2008,7 +1994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2019,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2030,7 +2016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2041,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2052,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2063,7 +2049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2074,7 +2060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2085,7 +2071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2096,7 +2082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2107,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2118,7 +2104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2129,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2151,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +2148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2173,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2184,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2195,7 +2181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2206,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2217,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2228,7 +2214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2250,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2261,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2272,7 +2258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2283,20 +2269,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>43</v>
       </c>
@@ -2307,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
@@ -2318,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>43</v>
       </c>
@@ -2329,7 +2315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>43</v>
       </c>
@@ -2340,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -2351,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>43</v>
       </c>
@@ -2362,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
@@ -2373,7 +2359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
@@ -2384,7 +2370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>43</v>
       </c>
@@ -2395,7 +2381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>43</v>
       </c>
@@ -2406,13 +2392,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
@@ -2426,7 +2412,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
@@ -2437,7 +2423,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>54</v>
       </c>
@@ -2451,7 +2437,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2462,7 +2448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2473,7 +2459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -2484,7 +2470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -2495,7 +2481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -2506,7 +2492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2517,7 +2503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2528,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2539,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2550,7 +2536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2561,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2572,7 +2558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2583,7 +2569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2594,7 +2580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2605,7 +2591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2616,7 +2602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2627,7 +2613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2638,7 +2624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2649,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2660,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2671,7 +2657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2682,7 +2668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2693,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2704,7 +2690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2715,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2726,7 +2712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2737,7 +2723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2748,7 +2734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2759,7 +2745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2770,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2781,7 +2767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2792,7 +2778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2803,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2814,7 +2800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2825,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2836,7 +2822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2847,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2858,7 +2844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2869,7 +2855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2880,7 +2866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2891,13 +2877,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2908,7 +2894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2919,7 +2905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2930,7 +2916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2941,7 +2927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -2952,7 +2938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -2963,7 +2949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -2974,7 +2960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -2985,7 +2971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -2996,7 +2982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3007,7 +2993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3018,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3029,7 +3015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3040,7 +3026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3051,7 +3037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3062,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3073,7 +3059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3084,7 +3070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3095,7 +3081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3106,7 +3092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3117,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3128,7 +3114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3139,7 +3125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3150,7 +3136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3161,7 +3147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3172,7 +3158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3183,7 +3169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3194,7 +3180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3205,7 +3191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3216,7 +3202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3227,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3238,7 +3224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3249,7 +3235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3260,7 +3246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3271,7 +3257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3282,7 +3268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3293,12 +3279,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>135</v>
       </c>
@@ -3309,7 +3295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>135</v>
       </c>
@@ -3320,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>135</v>
       </c>
@@ -3331,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>135</v>
       </c>
@@ -3342,7 +3328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>135</v>
       </c>
@@ -3353,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>135</v>
       </c>
@@ -3364,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>135</v>
       </c>
@@ -3375,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>135</v>
       </c>
@@ -3386,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>135</v>
       </c>
@@ -3397,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>135</v>
       </c>
@@ -3408,7 +3394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>135</v>
       </c>
@@ -3419,7 +3405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>135</v>
       </c>
@@ -3430,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>135</v>
       </c>
@@ -3441,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>135</v>
       </c>
@@ -3452,7 +3438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>135</v>
       </c>
@@ -3463,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>135</v>
       </c>
@@ -3474,7 +3460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>135</v>
       </c>
@@ -3485,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>135</v>
       </c>
@@ -3496,7 +3482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>135</v>
       </c>
@@ -3507,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>135</v>
       </c>
@@ -3518,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>135</v>
       </c>
@@ -3529,7 +3515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>135</v>
       </c>
@@ -3540,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>135</v>
       </c>
@@ -3551,7 +3537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>135</v>
       </c>
@@ -3562,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>135</v>
       </c>
@@ -3573,7 +3559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>135</v>
       </c>
@@ -3584,7 +3570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>135</v>
       </c>
@@ -3595,7 +3581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>135</v>
       </c>
@@ -3606,7 +3592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>135</v>
       </c>
@@ -3617,7 +3603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>135</v>
       </c>
@@ -3628,7 +3614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>135</v>
       </c>
@@ -3639,7 +3625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>135</v>
       </c>
@@ -3650,7 +3636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>135</v>
       </c>
@@ -3661,7 +3647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>135</v>
       </c>
@@ -3672,7 +3658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>135</v>
       </c>
@@ -3683,7 +3669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>135</v>
       </c>
@@ -3694,12 +3680,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3710,7 +3696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3721,7 +3707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3732,7 +3718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3743,7 +3729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3754,7 +3740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3765,7 +3751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3776,7 +3762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3787,7 +3773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3798,7 +3784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3809,7 +3795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3820,7 +3806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3831,7 +3817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3842,7 +3828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3853,7 +3839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3864,7 +3850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3875,7 +3861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3886,7 +3872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3897,7 +3883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3908,7 +3894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -3919,7 +3905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -3930,7 +3916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -3941,7 +3927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -3952,7 +3938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -3963,7 +3949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -3974,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -3985,7 +3971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -3996,7 +3982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4007,7 +3993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4018,7 +4004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4029,7 +4015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4040,7 +4026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4051,7 +4037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4062,7 +4048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4073,7 +4059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4084,17 +4070,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -4105,7 +4091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -4116,7 +4102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4127,7 +4113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4138,7 +4124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4149,7 +4135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4160,7 +4146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4171,7 +4157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4182,7 +4168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4193,7 +4179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4204,7 +4190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4215,7 +4201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4226,7 +4212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4237,7 +4223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4248,7 +4234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4259,7 +4245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4270,7 +4256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4281,7 +4267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4292,7 +4278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4303,7 +4289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4314,7 +4300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4325,7 +4311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4336,15 +4322,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4355,7 +4341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4366,7 +4352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4377,7 +4363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4388,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4399,7 +4385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4410,7 +4396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4421,7 +4407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4432,7 +4418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4443,7 +4429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4454,7 +4440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4465,7 +4451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4476,7 +4462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4487,7 +4473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4498,7 +4484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4509,7 +4495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4520,7 +4506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4531,7 +4517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4542,7 +4528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4553,7 +4539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4564,7 +4550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4575,7 +4561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4586,7 +4572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4597,7 +4583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4608,7 +4594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4619,7 +4605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4630,7 +4616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4641,7 +4627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4652,7 +4638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4663,7 +4649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4674,7 +4660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4685,7 +4671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4696,7 +4682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4707,7 +4693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4718,7 +4704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4729,15 +4715,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4748,7 +4734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4759,7 +4745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4770,7 +4756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4781,7 +4767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4792,7 +4778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4803,7 +4789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4814,7 +4800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4825,7 +4811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4836,7 +4822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4847,7 +4833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4858,7 +4844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4869,7 +4855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4880,7 +4866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4891,7 +4877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4902,7 +4888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -4913,7 +4899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -4924,7 +4910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -4935,7 +4921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -4946,15 +4932,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>286</v>
       </c>
@@ -4965,7 +4951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>286</v>
       </c>
@@ -4976,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
@@ -4987,7 +4973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -4998,7 +4984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5009,7 +4995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5020,7 +5006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5031,7 +5017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5042,7 +5028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -5053,7 +5039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -5064,7 +5050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5075,7 +5061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -5086,7 +5072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -5097,7 +5083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -5108,7 +5094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5119,7 +5105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5130,7 +5116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5141,7 +5127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5152,7 +5138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5163,7 +5149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5174,7 +5160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5185,7 +5171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5196,7 +5182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5207,7 +5193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5218,7 +5204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5229,7 +5215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5240,7 +5226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5251,7 +5237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5262,7 +5248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5273,7 +5259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5284,7 +5270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5295,7 +5281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5306,7 +5292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5317,7 +5303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5328,7 +5314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5339,7 +5325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5350,7 +5336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5361,7 +5347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5372,15 +5358,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="9" t="s">
         <v>325</v>
       </c>
@@ -5391,7 +5377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="9" t="s">
         <v>325</v>
       </c>
@@ -5402,7 +5388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="9" t="s">
         <v>325</v>
       </c>
@@ -5413,7 +5399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17" t="s">
         <v>325</v>
       </c>
@@ -5424,7 +5410,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="9" t="s">
         <v>325</v>
       </c>
@@ -5435,7 +5421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="9" t="s">
         <v>325</v>
       </c>
@@ -5446,7 +5432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="9" t="s">
         <v>325</v>
       </c>
@@ -5457,7 +5443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="9" t="s">
         <v>325</v>
       </c>
@@ -5468,7 +5454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="9" t="s">
         <v>325</v>
       </c>
@@ -5479,7 +5465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="9" t="s">
         <v>325</v>
       </c>
@@ -5490,7 +5476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="9" t="s">
         <v>325</v>
       </c>
@@ -5501,7 +5487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="9" t="s">
         <v>325</v>
       </c>
@@ -5512,7 +5498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="9" t="s">
         <v>325</v>
       </c>
@@ -5523,7 +5509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="9" t="s">
         <v>325</v>
       </c>
@@ -5534,7 +5520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
         <v>325</v>
       </c>
@@ -5545,7 +5531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="9" t="s">
         <v>325</v>
       </c>
@@ -5556,7 +5542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="9" t="s">
         <v>325</v>
       </c>
@@ -5567,7 +5553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
         <v>325</v>
       </c>
@@ -5578,15 +5564,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="9" t="s">
         <v>344</v>
       </c>
@@ -5597,7 +5583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
         <v>344</v>
       </c>
@@ -5608,7 +5594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
         <v>344</v>
       </c>
@@ -5619,7 +5605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
         <v>344</v>
       </c>
@@ -5630,7 +5616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="9" t="s">
         <v>344</v>
       </c>
@@ -5641,7 +5627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
         <v>344</v>
       </c>
@@ -5652,7 +5638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="9" t="s">
         <v>344</v>
       </c>
@@ -5663,7 +5649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
         <v>344</v>
       </c>
@@ -5674,7 +5660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="9" t="s">
         <v>344</v>
       </c>
@@ -5685,7 +5671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
         <v>344</v>
       </c>
@@ -5696,7 +5682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="9" t="s">
         <v>344</v>
       </c>
@@ -5707,7 +5693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
         <v>344</v>
       </c>
@@ -5718,7 +5704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="9" t="s">
         <v>344</v>
       </c>
@@ -5729,7 +5715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
         <v>344</v>
       </c>
@@ -5740,7 +5726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="9" t="s">
         <v>344</v>
       </c>
@@ -5751,7 +5737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="9" t="s">
         <v>344</v>
       </c>
@@ -5762,7 +5748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="9" t="s">
         <v>344</v>
       </c>
@@ -5773,7 +5759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
         <v>344</v>
       </c>
@@ -5784,7 +5770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="9" t="s">
         <v>344</v>
       </c>
@@ -5795,7 +5781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
         <v>344</v>
       </c>
@@ -5806,7 +5792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
         <v>344</v>
       </c>
@@ -5817,7 +5803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
         <v>344</v>
       </c>
@@ -5828,7 +5814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="9" t="s">
         <v>344</v>
       </c>
@@ -5839,7 +5825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
         <v>344</v>
       </c>
@@ -5850,7 +5836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="9" t="s">
         <v>344</v>
       </c>
@@ -5861,7 +5847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
         <v>344</v>
       </c>
@@ -5872,7 +5858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="9" t="s">
         <v>344</v>
       </c>
@@ -5883,7 +5869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
         <v>344</v>
       </c>
@@ -5894,7 +5880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="9" t="s">
         <v>344</v>
       </c>
@@ -5905,7 +5891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
         <v>344</v>
       </c>
@@ -5916,7 +5902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="9" t="s">
         <v>344</v>
       </c>
@@ -5927,7 +5913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
         <v>344</v>
       </c>
@@ -5938,7 +5924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
         <v>344</v>
       </c>
@@ -5949,7 +5935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
         <v>344</v>
       </c>
@@ -5960,7 +5946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="9" t="s">
         <v>344</v>
       </c>
@@ -5971,7 +5957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
         <v>344</v>
       </c>
@@ -5982,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="9" t="s">
         <v>344</v>
       </c>
@@ -5993,7 +5979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
         <v>344</v>
       </c>
@@ -6004,7 +5990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="9" t="s">
         <v>344</v>
       </c>
@@ -6015,7 +6001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
         <v>344</v>
       </c>
@@ -6026,7 +6012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
         <v>344</v>
       </c>
@@ -6037,7 +6023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
         <v>344</v>
       </c>
@@ -6048,7 +6034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="9" t="s">
         <v>344</v>
       </c>
@@ -6059,7 +6045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
         <v>344</v>
       </c>
@@ -6070,15 +6056,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="9" t="s">
         <v>388</v>
       </c>
@@ -6089,7 +6075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
         <v>388</v>
       </c>
@@ -6100,7 +6086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="9" t="s">
         <v>388</v>
       </c>
@@ -6111,7 +6097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
         <v>388</v>
       </c>
@@ -6122,7 +6108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9" t="s">
         <v>388</v>
       </c>
@@ -6133,7 +6119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
         <v>388</v>
       </c>
@@ -6144,15 +6130,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>394</v>
       </c>
@@ -6163,7 +6149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>394</v>
       </c>
@@ -6174,7 +6160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6185,7 +6171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6196,7 +6182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6207,7 +6193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6218,7 +6204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6229,7 +6215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6240,7 +6226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6251,7 +6237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6262,7 +6248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6273,7 +6259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6284,7 +6270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6295,7 +6281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6306,7 +6292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6317,7 +6303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6328,7 +6314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6339,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6350,7 +6336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6361,7 +6347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6372,7 +6358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6383,7 +6369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6394,7 +6380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6405,7 +6391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6416,7 +6402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6427,7 +6413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6438,7 +6424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6449,7 +6435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6460,7 +6446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6471,7 +6457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6482,7 +6468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6493,7 +6479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6504,7 +6490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6515,7 +6501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6526,7 +6512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6537,7 +6523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6548,7 +6534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6559,7 +6545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6570,7 +6556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6581,7 +6567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6592,7 +6578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6603,7 +6589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6614,7 +6600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6625,7 +6611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6636,7 +6622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6647,7 +6633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6658,7 +6644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6669,7 +6655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6680,7 +6666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6691,7 +6677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6702,7 +6688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6713,7 +6699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6724,7 +6710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6735,7 +6721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6746,7 +6732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6757,7 +6743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6768,7 +6754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6779,7 +6765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6790,7 +6776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6801,7 +6787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6812,16 +6798,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="9"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6832,7 +6818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6843,7 +6829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6854,7 +6840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6865,7 +6851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6876,7 +6862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6887,7 +6873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6898,7 +6884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -6909,7 +6895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -6920,7 +6906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -6931,525 +6917,525 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A4:D53"/>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="477">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1455,6 +1455,9 @@
   </si>
   <si>
     <t>Iter,Recursive done</t>
+  </si>
+  <si>
+    <t>Iterative binary search modification done</t>
   </si>
 </sst>
 </file>
@@ -1812,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C99" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2855,7 +2858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2877,24 +2880,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="481">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1458,6 +1458,18 @@
   </si>
   <si>
     <t>Iterative binary search modification done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be read </t>
+  </si>
+  <si>
+    <t>String Methods</t>
+  </si>
+  <si>
+    <t>One Done, Another one is there in Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Also Known As KADANE's algo</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1543,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1541,6 +1553,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,7 +1575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1598,6 +1616,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1815,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C99" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1953,15 +1980,18 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
+      <c r="C13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2440,37 +2470,43 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="C59" s="20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="C60" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>5</v>
+      <c r="C61" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Java Algotithms\DataStructureProblems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Workspace\DataStructureProblems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1469,7 +1469,13 @@
     <t>One Done, Another one is there in Dynamic Programming</t>
   </si>
   <si>
-    <t>Also Known As KADANE's algo</t>
+    <t>Also Known As KADANE's algo. Need to check how to print subarray</t>
+  </si>
+  <si>
+    <t>Ambiguos</t>
+  </si>
+  <si>
+    <t>Starting return and ending return</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1549,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1562,6 +1568,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1575,7 +1587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1624,7 +1636,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1842,31 +1861,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1877,12 +1896,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +1915,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1910,7 +1929,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -1924,7 +1943,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1938,7 +1957,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +1971,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -1966,7 +1985,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -1980,21 +1999,21 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2005,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2016,7 +2035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2038,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2071,7 +2090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2093,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2126,7 +2145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2159,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2181,7 +2200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2192,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2203,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +2233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2225,7 +2244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2236,7 +2255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2247,7 +2266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +2277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2269,7 +2288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2302,20 +2321,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>43</v>
       </c>
@@ -2326,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
@@ -2337,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
         <v>43</v>
       </c>
@@ -2348,7 +2367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
         <v>43</v>
       </c>
@@ -2359,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -2370,7 +2389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="9" t="s">
         <v>43</v>
       </c>
@@ -2381,7 +2400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
@@ -2392,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
@@ -2403,7 +2422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="9" t="s">
         <v>43</v>
       </c>
@@ -2414,7 +2433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="9" t="s">
         <v>43</v>
       </c>
@@ -2425,13 +2444,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
@@ -2445,7 +2464,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
@@ -2456,7 +2475,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>54</v>
       </c>
@@ -2470,7 +2489,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18" t="s">
         <v>54</v>
       </c>
@@ -2481,7 +2500,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>54</v>
       </c>
@@ -2495,7 +2514,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>54</v>
       </c>
@@ -2509,29 +2528,35 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="C62" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2542,7 +2567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2553,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2564,7 +2589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2575,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2586,7 +2611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2597,7 +2622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2608,7 +2633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2619,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2630,7 +2655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2641,7 +2666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2652,7 +2677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2663,7 +2688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2674,7 +2699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2685,7 +2710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2696,7 +2721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2707,7 +2732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2718,7 +2743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2729,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2740,7 +2765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2751,7 +2776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2762,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2773,7 +2798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2784,7 +2809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2795,7 +2820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2806,7 +2831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2817,7 +2842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2828,7 +2853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2839,7 +2864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2850,7 +2875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2861,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2872,7 +2897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2883,7 +2908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2894,7 +2919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2905,7 +2930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2916,13 +2941,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="11" t="s">
         <v>98</v>
       </c>
@@ -2936,7 +2961,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2947,7 +2972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2958,7 +2983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2969,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -2980,7 +3005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -2991,7 +3016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -3002,7 +3027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -3013,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -3024,7 +3049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3035,7 +3060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3046,7 +3071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3057,7 +3082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3068,7 +3093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3079,7 +3104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3090,7 +3115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3101,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3112,7 +3137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3123,7 +3148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3134,7 +3159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3145,7 +3170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3156,7 +3181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3167,7 +3192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3178,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3189,7 +3214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3200,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3211,7 +3236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3222,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3233,7 +3258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3244,7 +3269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3255,7 +3280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3266,7 +3291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3277,7 +3302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3288,7 +3313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3299,7 +3324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3310,7 +3335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3321,12 +3346,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="9" t="s">
         <v>135</v>
       </c>
@@ -3337,7 +3362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="9" t="s">
         <v>135</v>
       </c>
@@ -3348,7 +3373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="9" t="s">
         <v>135</v>
       </c>
@@ -3359,7 +3384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="9" t="s">
         <v>135</v>
       </c>
@@ -3370,7 +3395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="9" t="s">
         <v>135</v>
       </c>
@@ -3381,7 +3406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="9" t="s">
         <v>135</v>
       </c>
@@ -3392,7 +3417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="9" t="s">
         <v>135</v>
       </c>
@@ -3403,7 +3428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="9" t="s">
         <v>135</v>
       </c>
@@ -3414,7 +3439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="9" t="s">
         <v>135</v>
       </c>
@@ -3425,7 +3450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="9" t="s">
         <v>135</v>
       </c>
@@ -3436,7 +3461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="9" t="s">
         <v>135</v>
       </c>
@@ -3447,7 +3472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="9" t="s">
         <v>135</v>
       </c>
@@ -3458,7 +3483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="9" t="s">
         <v>135</v>
       </c>
@@ -3469,7 +3494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="9" t="s">
         <v>135</v>
       </c>
@@ -3480,7 +3505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="9" t="s">
         <v>135</v>
       </c>
@@ -3491,7 +3516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="9" t="s">
         <v>135</v>
       </c>
@@ -3502,7 +3527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="9" t="s">
         <v>135</v>
       </c>
@@ -3513,7 +3538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="9" t="s">
         <v>135</v>
       </c>
@@ -3524,7 +3549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="9" t="s">
         <v>135</v>
       </c>
@@ -3535,7 +3560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="9" t="s">
         <v>135</v>
       </c>
@@ -3546,7 +3571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="9" t="s">
         <v>135</v>
       </c>
@@ -3557,7 +3582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="9" t="s">
         <v>135</v>
       </c>
@@ -3568,7 +3593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="9" t="s">
         <v>135</v>
       </c>
@@ -3579,7 +3604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="9" t="s">
         <v>135</v>
       </c>
@@ -3590,7 +3615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="9" t="s">
         <v>135</v>
       </c>
@@ -3601,7 +3626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="9" t="s">
         <v>135</v>
       </c>
@@ -3612,7 +3637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="9" t="s">
         <v>135</v>
       </c>
@@ -3623,7 +3648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="9" t="s">
         <v>135</v>
       </c>
@@ -3634,7 +3659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="9" t="s">
         <v>135</v>
       </c>
@@ -3645,7 +3670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="9" t="s">
         <v>135</v>
       </c>
@@ -3656,7 +3681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="9" t="s">
         <v>135</v>
       </c>
@@ -3667,7 +3692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="9" t="s">
         <v>135</v>
       </c>
@@ -3678,7 +3703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="9" t="s">
         <v>135</v>
       </c>
@@ -3689,7 +3714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="9" t="s">
         <v>135</v>
       </c>
@@ -3700,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="9" t="s">
         <v>135</v>
       </c>
@@ -3711,7 +3736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="9" t="s">
         <v>135</v>
       </c>
@@ -3722,12 +3747,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3738,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3749,7 +3774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3760,7 +3785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3771,7 +3796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3782,7 +3807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3793,7 +3818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3804,7 +3829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3815,7 +3840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3826,7 +3851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3837,7 +3862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3848,7 +3873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3859,7 +3884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3870,7 +3895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3881,7 +3906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3892,7 +3917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3903,7 +3928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3914,7 +3939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3925,7 +3950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3936,7 +3961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -3947,7 +3972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -3958,7 +3983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -3969,7 +3994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -3980,7 +4005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -3991,7 +4016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -4002,7 +4027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -4013,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -4024,7 +4049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4035,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4046,7 +4071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4057,7 +4082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4068,7 +4093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4079,7 +4104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4090,7 +4115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4101,7 +4126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4112,17 +4137,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -4133,7 +4158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -4144,7 +4169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4155,7 +4180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4166,7 +4191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4177,7 +4202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4188,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4199,7 +4224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4210,7 +4235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4221,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4232,7 +4257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4243,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4254,7 +4279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4265,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4276,7 +4301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4287,7 +4312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4298,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4309,7 +4334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4320,7 +4345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4331,7 +4356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4342,7 +4367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4353,7 +4378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4364,15 +4389,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4383,7 +4408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4394,7 +4419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4405,7 +4430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4416,7 +4441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4427,7 +4452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4438,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4449,7 +4474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4460,7 +4485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4471,7 +4496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4482,7 +4507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4493,7 +4518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4504,7 +4529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4515,7 +4540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4526,7 +4551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4537,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4548,7 +4573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4559,7 +4584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4570,7 +4595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4581,7 +4606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4592,7 +4617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4603,7 +4628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4614,7 +4639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4625,7 +4650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4636,7 +4661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4647,7 +4672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4658,7 +4683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4669,7 +4694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4680,7 +4705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4691,7 +4716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4702,7 +4727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4713,7 +4738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4724,7 +4749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4735,7 +4760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4746,7 +4771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4757,15 +4782,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4776,7 +4801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4787,7 +4812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4798,7 +4823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4809,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4820,7 +4845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4831,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4842,7 +4867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4853,7 +4878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4864,7 +4889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4875,7 +4900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4886,7 +4911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4897,7 +4922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4908,7 +4933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4919,7 +4944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4930,7 +4955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -4941,7 +4966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -4952,7 +4977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -4963,7 +4988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -4974,15 +4999,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="6" t="s">
         <v>286</v>
       </c>
@@ -4993,7 +5018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="6" t="s">
         <v>286</v>
       </c>
@@ -5004,7 +5029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
@@ -5015,7 +5040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -5026,7 +5051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5037,7 +5062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5048,7 +5073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5059,7 +5084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5070,7 +5095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -5081,7 +5106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -5092,7 +5117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5103,7 +5128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -5114,7 +5139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -5125,7 +5150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -5136,7 +5161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5147,7 +5172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5158,7 +5183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5169,7 +5194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5180,7 +5205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5191,7 +5216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5202,7 +5227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5213,7 +5238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5224,7 +5249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5235,7 +5260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5246,7 +5271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5257,7 +5282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5268,7 +5293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5279,7 +5304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5290,7 +5315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5301,7 +5326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5312,7 +5337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5323,7 +5348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5334,7 +5359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5345,7 +5370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5356,7 +5381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5367,7 +5392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5378,7 +5403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5389,7 +5414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5400,15 +5425,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="9" t="s">
         <v>325</v>
       </c>
@@ -5419,7 +5444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="9" t="s">
         <v>325</v>
       </c>
@@ -5430,7 +5455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="9" t="s">
         <v>325</v>
       </c>
@@ -5441,7 +5466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="17" t="s">
         <v>325</v>
       </c>
@@ -5452,7 +5477,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="9" t="s">
         <v>325</v>
       </c>
@@ -5463,7 +5488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="9" t="s">
         <v>325</v>
       </c>
@@ -5474,7 +5499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="9" t="s">
         <v>325</v>
       </c>
@@ -5485,7 +5510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="9" t="s">
         <v>325</v>
       </c>
@@ -5496,7 +5521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="9" t="s">
         <v>325</v>
       </c>
@@ -5507,7 +5532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="9" t="s">
         <v>325</v>
       </c>
@@ -5518,7 +5543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="9" t="s">
         <v>325</v>
       </c>
@@ -5529,7 +5554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="9" t="s">
         <v>325</v>
       </c>
@@ -5540,7 +5565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="9" t="s">
         <v>325</v>
       </c>
@@ -5551,7 +5576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="9" t="s">
         <v>325</v>
       </c>
@@ -5562,7 +5587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="9" t="s">
         <v>325</v>
       </c>
@@ -5573,7 +5598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="9" t="s">
         <v>325</v>
       </c>
@@ -5584,7 +5609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="9" t="s">
         <v>325</v>
       </c>
@@ -5595,7 +5620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="9" t="s">
         <v>325</v>
       </c>
@@ -5606,15 +5631,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="9" t="s">
         <v>344</v>
       </c>
@@ -5625,7 +5650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="9" t="s">
         <v>344</v>
       </c>
@@ -5636,7 +5661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="9" t="s">
         <v>344</v>
       </c>
@@ -5647,7 +5672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="9" t="s">
         <v>344</v>
       </c>
@@ -5658,7 +5683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="9" t="s">
         <v>344</v>
       </c>
@@ -5669,7 +5694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="9" t="s">
         <v>344</v>
       </c>
@@ -5680,7 +5705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="9" t="s">
         <v>344</v>
       </c>
@@ -5691,7 +5716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="9" t="s">
         <v>344</v>
       </c>
@@ -5702,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="9" t="s">
         <v>344</v>
       </c>
@@ -5713,7 +5738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="9" t="s">
         <v>344</v>
       </c>
@@ -5724,7 +5749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="9" t="s">
         <v>344</v>
       </c>
@@ -5735,7 +5760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="9" t="s">
         <v>344</v>
       </c>
@@ -5746,7 +5771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="9" t="s">
         <v>344</v>
       </c>
@@ -5757,7 +5782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="9" t="s">
         <v>344</v>
       </c>
@@ -5768,7 +5793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="9" t="s">
         <v>344</v>
       </c>
@@ -5779,7 +5804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="9" t="s">
         <v>344</v>
       </c>
@@ -5790,7 +5815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="9" t="s">
         <v>344</v>
       </c>
@@ -5801,7 +5826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="9" t="s">
         <v>344</v>
       </c>
@@ -5812,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="9" t="s">
         <v>344</v>
       </c>
@@ -5823,7 +5848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="9" t="s">
         <v>344</v>
       </c>
@@ -5834,7 +5859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="9" t="s">
         <v>344</v>
       </c>
@@ -5845,7 +5870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="9" t="s">
         <v>344</v>
       </c>
@@ -5856,7 +5881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="9" t="s">
         <v>344</v>
       </c>
@@ -5867,7 +5892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="9" t="s">
         <v>344</v>
       </c>
@@ -5878,7 +5903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="9" t="s">
         <v>344</v>
       </c>
@@ -5889,7 +5914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="9" t="s">
         <v>344</v>
       </c>
@@ -5900,7 +5925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="9" t="s">
         <v>344</v>
       </c>
@@ -5911,7 +5936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="9" t="s">
         <v>344</v>
       </c>
@@ -5922,7 +5947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="9" t="s">
         <v>344</v>
       </c>
@@ -5933,7 +5958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="9" t="s">
         <v>344</v>
       </c>
@@ -5944,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="9" t="s">
         <v>344</v>
       </c>
@@ -5955,7 +5980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="9" t="s">
         <v>344</v>
       </c>
@@ -5966,7 +5991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="9" t="s">
         <v>344</v>
       </c>
@@ -5977,7 +6002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="9" t="s">
         <v>344</v>
       </c>
@@ -5988,7 +6013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" s="9" t="s">
         <v>344</v>
       </c>
@@ -5999,7 +6024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" s="9" t="s">
         <v>344</v>
       </c>
@@ -6010,7 +6035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A392" s="9" t="s">
         <v>344</v>
       </c>
@@ -6021,7 +6046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" s="9" t="s">
         <v>344</v>
       </c>
@@ -6032,7 +6057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" s="9" t="s">
         <v>344</v>
       </c>
@@ -6043,7 +6068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" s="9" t="s">
         <v>344</v>
       </c>
@@ -6054,7 +6079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" s="9" t="s">
         <v>344</v>
       </c>
@@ -6065,7 +6090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A397" s="9" t="s">
         <v>344</v>
       </c>
@@ -6076,7 +6101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A398" s="9" t="s">
         <v>344</v>
       </c>
@@ -6087,7 +6112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A399" s="9" t="s">
         <v>344</v>
       </c>
@@ -6098,15 +6123,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A402" s="9" t="s">
         <v>388</v>
       </c>
@@ -6117,7 +6142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A403" s="9" t="s">
         <v>388</v>
       </c>
@@ -6128,7 +6153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A404" s="9" t="s">
         <v>388</v>
       </c>
@@ -6139,7 +6164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A405" s="9" t="s">
         <v>388</v>
       </c>
@@ -6150,7 +6175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A406" s="9" t="s">
         <v>388</v>
       </c>
@@ -6161,7 +6186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A407" s="9" t="s">
         <v>388</v>
       </c>
@@ -6172,15 +6197,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="6" t="s">
         <v>394</v>
       </c>
@@ -6191,7 +6216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="6" t="s">
         <v>394</v>
       </c>
@@ -6202,7 +6227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6213,7 +6238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6224,7 +6249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6235,7 +6260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6246,7 +6271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6257,7 +6282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6268,7 +6293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6279,7 +6304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6290,7 +6315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6301,7 +6326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6312,7 +6337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6323,7 +6348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6334,7 +6359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6345,7 +6370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6356,7 +6381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6367,7 +6392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6378,7 +6403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6389,7 +6414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6400,7 +6425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6411,7 +6436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6422,7 +6447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6433,7 +6458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6444,7 +6469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6455,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6466,7 +6491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6477,7 +6502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6488,7 +6513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6499,7 +6524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6510,7 +6535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6521,7 +6546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6532,7 +6557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6543,7 +6568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6554,7 +6579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6565,7 +6590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6576,7 +6601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6587,7 +6612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6598,7 +6623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6609,7 +6634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6620,7 +6645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6631,7 +6656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6642,7 +6667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6653,7 +6678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6664,7 +6689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6675,7 +6700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6686,7 +6711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6697,7 +6722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6708,7 +6733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6719,7 +6744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6730,7 +6755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6741,7 +6766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6752,7 +6777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6763,7 +6788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6774,7 +6799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6785,7 +6810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6796,7 +6821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6807,7 +6832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6818,7 +6843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6829,7 +6854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6840,16 +6865,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A471" s="9"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6860,7 +6885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6871,7 +6896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6882,7 +6907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6893,7 +6918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6904,7 +6929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6915,7 +6940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6926,7 +6951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -6937,7 +6962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -6948,7 +6973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -6959,525 +6984,525 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A4:D53"/>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="484">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1476,6 +1476,9 @@
   </si>
   <si>
     <t>Starting return and ending return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arraylist Based </t>
   </si>
 </sst>
 </file>
@@ -1861,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4944,7 +4947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4955,7 +4958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -4977,7 +4980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -4999,26 +5002,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A296" s="6" t="s">
+    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A296" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C296" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D296" s="13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="6" t="s">
         <v>286</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5062,7 +5068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5073,7 +5079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5084,7 +5090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Workspace\DataStructureProblems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Java Algotithms\DataStructureProblems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="485">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1479,6 +1479,9 @@
   </si>
   <si>
     <t xml:space="preserve">Arraylist Based </t>
+  </si>
+  <si>
+    <t>Efficient Circular Queue based</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1647,6 +1650,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1864,31 +1868,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="D299" sqref="D299"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="49.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1899,12 +1903,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2071,7 +2075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2181,7 +2185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2236,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2324,20 +2328,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>43</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>43</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>43</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -2392,7 +2396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>43</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
@@ -2414,7 +2418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>43</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>43</v>
       </c>
@@ -2447,13 +2451,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
@@ -2467,7 +2471,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
@@ -2478,7 +2482,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>54</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>54</v>
       </c>
@@ -2503,7 +2507,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>54</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>54</v>
       </c>
@@ -2531,7 +2535,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>54</v>
       </c>
@@ -2545,7 +2549,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>54</v>
       </c>
@@ -2559,7 +2563,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2614,7 +2618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2658,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2680,7 +2684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2702,7 +2706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2713,7 +2717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2746,7 +2750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2790,7 +2794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2834,7 +2838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2911,7 +2915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2944,13 +2948,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>98</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2986,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3096,7 +3100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3107,7 +3111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3195,7 +3199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3206,7 +3210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3239,7 +3243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3272,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3294,7 +3298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3305,7 +3309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3316,7 +3320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3327,7 +3331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3349,12 +3353,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>135</v>
       </c>
@@ -3365,7 +3369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>135</v>
       </c>
@@ -3376,7 +3380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>135</v>
       </c>
@@ -3387,7 +3391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>135</v>
       </c>
@@ -3398,7 +3402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>135</v>
       </c>
@@ -3409,7 +3413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>135</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>135</v>
       </c>
@@ -3431,7 +3435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>135</v>
       </c>
@@ -3442,7 +3446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>135</v>
       </c>
@@ -3453,7 +3457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>135</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>135</v>
       </c>
@@ -3475,7 +3479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>135</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>135</v>
       </c>
@@ -3497,7 +3501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>135</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>135</v>
       </c>
@@ -3519,7 +3523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>135</v>
       </c>
@@ -3530,7 +3534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>135</v>
       </c>
@@ -3541,7 +3545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>135</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>135</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>135</v>
       </c>
@@ -3574,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>135</v>
       </c>
@@ -3585,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>135</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>135</v>
       </c>
@@ -3607,7 +3611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>135</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>135</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>135</v>
       </c>
@@ -3640,7 +3644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>135</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>135</v>
       </c>
@@ -3662,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>135</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>135</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>135</v>
       </c>
@@ -3695,7 +3699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>135</v>
       </c>
@@ -3706,7 +3710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>135</v>
       </c>
@@ -3717,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>135</v>
       </c>
@@ -3728,7 +3732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>135</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>135</v>
       </c>
@@ -3750,12 +3754,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3777,7 +3781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3810,7 +3814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3832,7 +3836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3865,7 +3869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3876,7 +3880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3931,7 +3935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3942,7 +3946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -3997,7 +4001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -4041,7 +4045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -4052,7 +4056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4085,7 +4089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4107,7 +4111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4140,17 +4144,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -4161,7 +4165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4183,7 +4187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4194,7 +4198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4205,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4216,7 +4220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4238,7 +4242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4282,7 +4286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4293,7 +4297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4337,7 +4341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4348,7 +4352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4370,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4392,15 +4396,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4444,7 +4448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4466,7 +4470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4477,7 +4481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4521,7 +4525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4532,7 +4536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4587,7 +4591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4598,7 +4602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4620,7 +4624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4631,7 +4635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4664,7 +4668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4697,7 +4701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4708,7 +4712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4730,7 +4734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4741,7 +4745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4774,7 +4778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4785,15 +4789,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4804,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4815,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4826,7 +4830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4848,7 +4852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4870,7 +4874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4881,7 +4885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4892,7 +4896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4903,7 +4907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4914,7 +4918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4947,7 +4951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4958,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -4969,7 +4973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -4980,7 +4984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -4991,7 +4995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -5002,40 +5006,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A296" s="11" t="s">
+    <row r="296" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B296" s="12" t="s">
+      <c r="B296" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="C296" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="D296" s="13" t="s">
+      <c r="D296" s="21" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A297" s="6" t="s">
+    <row r="297" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="C297" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C297" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D297" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
@@ -5046,7 +5053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -5057,7 +5064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5068,7 +5075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5079,7 +5086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5090,7 +5097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5101,7 +5108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -5112,7 +5119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -5123,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5134,7 +5141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -5145,7 +5152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -5156,7 +5163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -5167,7 +5174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5178,7 +5185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5189,7 +5196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5200,7 +5207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5211,7 +5218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5222,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5233,7 +5240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5244,7 +5251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5255,7 +5262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5266,7 +5273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5277,7 +5284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5288,7 +5295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5299,7 +5306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5310,7 +5317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5321,7 +5328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5332,7 +5339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5343,7 +5350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5354,7 +5361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5365,7 +5372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5376,7 +5383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5387,7 +5394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5398,7 +5405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5409,7 +5416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5420,7 +5427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5431,15 +5438,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="9" t="s">
         <v>325</v>
       </c>
@@ -5450,7 +5457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="9" t="s">
         <v>325</v>
       </c>
@@ -5461,7 +5468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="9" t="s">
         <v>325</v>
       </c>
@@ -5472,7 +5479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17" t="s">
         <v>325</v>
       </c>
@@ -5483,7 +5490,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="9" t="s">
         <v>325</v>
       </c>
@@ -5494,7 +5501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="9" t="s">
         <v>325</v>
       </c>
@@ -5505,7 +5512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="9" t="s">
         <v>325</v>
       </c>
@@ -5516,7 +5523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="9" t="s">
         <v>325</v>
       </c>
@@ -5527,7 +5534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="9" t="s">
         <v>325</v>
       </c>
@@ -5538,7 +5545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="9" t="s">
         <v>325</v>
       </c>
@@ -5549,7 +5556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="9" t="s">
         <v>325</v>
       </c>
@@ -5560,7 +5567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="9" t="s">
         <v>325</v>
       </c>
@@ -5571,7 +5578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="9" t="s">
         <v>325</v>
       </c>
@@ -5582,7 +5589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="9" t="s">
         <v>325</v>
       </c>
@@ -5593,7 +5600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
         <v>325</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="9" t="s">
         <v>325</v>
       </c>
@@ -5615,7 +5622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="9" t="s">
         <v>325</v>
       </c>
@@ -5626,7 +5633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
         <v>325</v>
       </c>
@@ -5637,15 +5644,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="9" t="s">
         <v>344</v>
       </c>
@@ -5656,7 +5663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
         <v>344</v>
       </c>
@@ -5667,7 +5674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
         <v>344</v>
       </c>
@@ -5678,7 +5685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
         <v>344</v>
       </c>
@@ -5689,7 +5696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="9" t="s">
         <v>344</v>
       </c>
@@ -5700,7 +5707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
         <v>344</v>
       </c>
@@ -5711,7 +5718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="9" t="s">
         <v>344</v>
       </c>
@@ -5722,7 +5729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
         <v>344</v>
       </c>
@@ -5733,7 +5740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="9" t="s">
         <v>344</v>
       </c>
@@ -5744,7 +5751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
         <v>344</v>
       </c>
@@ -5755,7 +5762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="9" t="s">
         <v>344</v>
       </c>
@@ -5766,7 +5773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
         <v>344</v>
       </c>
@@ -5777,7 +5784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="9" t="s">
         <v>344</v>
       </c>
@@ -5788,7 +5795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
         <v>344</v>
       </c>
@@ -5799,7 +5806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="9" t="s">
         <v>344</v>
       </c>
@@ -5810,7 +5817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="9" t="s">
         <v>344</v>
       </c>
@@ -5821,7 +5828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="9" t="s">
         <v>344</v>
       </c>
@@ -5832,7 +5839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
         <v>344</v>
       </c>
@@ -5843,7 +5850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="9" t="s">
         <v>344</v>
       </c>
@@ -5854,7 +5861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
         <v>344</v>
       </c>
@@ -5865,7 +5872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
         <v>344</v>
       </c>
@@ -5876,7 +5883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
         <v>344</v>
       </c>
@@ -5887,7 +5894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="9" t="s">
         <v>344</v>
       </c>
@@ -5898,7 +5905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
         <v>344</v>
       </c>
@@ -5909,7 +5916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="9" t="s">
         <v>344</v>
       </c>
@@ -5920,7 +5927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
         <v>344</v>
       </c>
@@ -5931,7 +5938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="9" t="s">
         <v>344</v>
       </c>
@@ -5942,7 +5949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
         <v>344</v>
       </c>
@@ -5953,7 +5960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="9" t="s">
         <v>344</v>
       </c>
@@ -5964,7 +5971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
         <v>344</v>
       </c>
@@ -5975,7 +5982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="9" t="s">
         <v>344</v>
       </c>
@@ -5986,7 +5993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
         <v>344</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
         <v>344</v>
       </c>
@@ -6008,7 +6015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
         <v>344</v>
       </c>
@@ -6019,7 +6026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="9" t="s">
         <v>344</v>
       </c>
@@ -6030,7 +6037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
         <v>344</v>
       </c>
@@ -6041,7 +6048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="9" t="s">
         <v>344</v>
       </c>
@@ -6052,7 +6059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
         <v>344</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="9" t="s">
         <v>344</v>
       </c>
@@ -6074,7 +6081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
         <v>344</v>
       </c>
@@ -6085,7 +6092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
         <v>344</v>
       </c>
@@ -6096,7 +6103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
         <v>344</v>
       </c>
@@ -6107,7 +6114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="9" t="s">
         <v>344</v>
       </c>
@@ -6118,7 +6125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
         <v>344</v>
       </c>
@@ -6129,15 +6136,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="9" t="s">
         <v>388</v>
       </c>
@@ -6148,7 +6155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
         <v>388</v>
       </c>
@@ -6159,7 +6166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="9" t="s">
         <v>388</v>
       </c>
@@ -6170,7 +6177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
         <v>388</v>
       </c>
@@ -6181,7 +6188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9" t="s">
         <v>388</v>
       </c>
@@ -6192,7 +6199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
         <v>388</v>
       </c>
@@ -6203,15 +6210,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>394</v>
       </c>
@@ -6222,7 +6229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>394</v>
       </c>
@@ -6233,7 +6240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6244,7 +6251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6255,7 +6262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6266,7 +6273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6277,7 +6284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6288,7 +6295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6299,7 +6306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6310,7 +6317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6321,7 +6328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6332,7 +6339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6343,7 +6350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6354,7 +6361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6365,7 +6372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6376,7 +6383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6387,7 +6394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6398,7 +6405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6409,7 +6416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6420,7 +6427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6431,7 +6438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6442,7 +6449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6453,7 +6460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6464,7 +6471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6475,7 +6482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6486,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6497,7 +6504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6508,7 +6515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6519,7 +6526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6530,7 +6537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6541,7 +6548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6552,7 +6559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6563,7 +6570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6574,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6585,7 +6592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6596,7 +6603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6607,7 +6614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6618,7 +6625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6629,7 +6636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6651,7 +6658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6662,7 +6669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6673,7 +6680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6684,7 +6691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6695,7 +6702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6706,7 +6713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6717,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6728,7 +6735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6739,7 +6746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6750,7 +6757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6761,7 +6768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6772,7 +6779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6783,7 +6790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6794,7 +6801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6805,7 +6812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6816,7 +6823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6827,7 +6834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6838,7 +6845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6849,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6860,7 +6867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6871,16 +6878,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="9"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6891,7 +6898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6902,7 +6909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6913,7 +6920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6924,7 +6931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6935,7 +6942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6946,7 +6953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6957,7 +6964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -6968,7 +6975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -6979,7 +6986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -6990,525 +6997,525 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A4:D53"/>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="486">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1482,6 +1482,9 @@
   </si>
   <si>
     <t>Efficient Circular Queue based</t>
+  </si>
+  <si>
+    <t>Efficient array based implementation</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1650,7 +1653,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1868,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="D303" sqref="D303"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5014,43 +5016,46 @@
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="18" t="s">
+    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B296" s="26" t="s">
+      <c r="B296" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C296" s="20" t="s">
+      <c r="C296" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="D296" s="21" t="s">
+      <c r="D296" s="13" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="18" t="s">
+    <row r="297" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B297" s="26" t="s">
+      <c r="B297" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="C297" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D297" s="21" t="s">
+      <c r="C297" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D297" s="13" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="6" t="s">
+    <row r="298" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="C298" s="5" t="s">
-        <v>5</v>
+      <c r="C298" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D298" s="13" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1596,7 +1596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,6 +1653,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1870,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="D298" sqref="D298"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2343,14 +2347,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:3" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="20" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1596,7 +1596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,10 +1653,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1874,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2347,26 +2343,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
+    <row r="44" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+      <c r="C44" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>5</v>
+      <c r="C45" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1870,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D417" sqref="D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6223,15 +6223,15 @@
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="6" t="s">
+    <row r="410" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="B410" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="C410" s="5" t="s">
-        <v>5</v>
+      <c r="C410" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="488">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1485,6 +1485,12 @@
   </si>
   <si>
     <t>Efficient array based implementation</t>
+  </si>
+  <si>
+    <t>Ambiguity</t>
+  </si>
+  <si>
+    <t>We can Assume that it will always reach at the end of array</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,6 +1659,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1871,7 +1885,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D417" sqref="D417"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2022,26 +2036,32 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="C14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
+      <c r="C15" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6234,14 +6254,14 @@
         <v>465</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="6" t="s">
+    <row r="411" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="C411" s="5" t="s">
+      <c r="C411" s="28" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="489">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1491,6 +1491,9 @@
   </si>
   <si>
     <t>We can Assume that it will always reach at the end of array</t>
+  </si>
+  <si>
+    <t>4 functions needed printsol,issafe,solvemaze,solvemazeutil</t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2585,14 +2588,14 @@
         <v>482</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4811,26 +4814,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="6" t="s">
+    <row r="275" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C275" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D275" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4885,7 +4891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4896,7 +4902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4907,7 +4913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4918,7 +4924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4951,7 +4957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4962,7 +4968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Java Algotithms\DataStructureProblems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Workspace\DataStructureProblems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1887,31 +1887,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1922,12 +1922,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2353,20 +2353,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
         <v>43</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17" t="s">
         <v>43</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
         <v>43</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
         <v>43</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="9" t="s">
         <v>43</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="9" t="s">
         <v>43</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="9" t="s">
         <v>43</v>
       </c>
@@ -2476,13 +2476,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>54</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18" t="s">
         <v>54</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>54</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>54</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="22" t="s">
         <v>54</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>54</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="26" t="s">
         <v>54</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2973,13 +2973,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="11" t="s">
         <v>98</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3378,12 +3378,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="9" t="s">
         <v>135</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="9" t="s">
         <v>135</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="9" t="s">
         <v>135</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="9" t="s">
         <v>135</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="9" t="s">
         <v>135</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="9" t="s">
         <v>135</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="9" t="s">
         <v>135</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="9" t="s">
         <v>135</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="9" t="s">
         <v>135</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="9" t="s">
         <v>135</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="9" t="s">
         <v>135</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="9" t="s">
         <v>135</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="9" t="s">
         <v>135</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="9" t="s">
         <v>135</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="9" t="s">
         <v>135</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="9" t="s">
         <v>135</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="9" t="s">
         <v>135</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="9" t="s">
         <v>135</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="9" t="s">
         <v>135</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="9" t="s">
         <v>135</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="9" t="s">
         <v>135</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="9" t="s">
         <v>135</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="9" t="s">
         <v>135</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="9" t="s">
         <v>135</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="9" t="s">
         <v>135</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="9" t="s">
         <v>135</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="9" t="s">
         <v>135</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="9" t="s">
         <v>135</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="9" t="s">
         <v>135</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="9" t="s">
         <v>135</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="9" t="s">
         <v>135</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="9" t="s">
         <v>135</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="9" t="s">
         <v>135</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="9" t="s">
         <v>135</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="9" t="s">
         <v>135</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="9" t="s">
         <v>135</v>
       </c>
@@ -3779,23 +3779,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
+    <row r="177" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4169,17 +4169,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4421,15 +4421,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4814,15 +4814,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="11" t="s">
         <v>266</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -5034,15 +5034,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="11" t="s">
         <v>286</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="11" t="s">
         <v>286</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="11" t="s">
         <v>286</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5469,15 +5469,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="9" t="s">
         <v>325</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="9" t="s">
         <v>325</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="9" t="s">
         <v>325</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="17" t="s">
         <v>325</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="9" t="s">
         <v>325</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="9" t="s">
         <v>325</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="9" t="s">
         <v>325</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="9" t="s">
         <v>325</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="9" t="s">
         <v>325</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="9" t="s">
         <v>325</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="9" t="s">
         <v>325</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="9" t="s">
         <v>325</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="9" t="s">
         <v>325</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="9" t="s">
         <v>325</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="9" t="s">
         <v>325</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="9" t="s">
         <v>325</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="9" t="s">
         <v>325</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="9" t="s">
         <v>325</v>
       </c>
@@ -5675,15 +5675,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="9" t="s">
         <v>344</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="9" t="s">
         <v>344</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="9" t="s">
         <v>344</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="9" t="s">
         <v>344</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="9" t="s">
         <v>344</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="9" t="s">
         <v>344</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="9" t="s">
         <v>344</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="9" t="s">
         <v>344</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="9" t="s">
         <v>344</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="9" t="s">
         <v>344</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="9" t="s">
         <v>344</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="9" t="s">
         <v>344</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="9" t="s">
         <v>344</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="9" t="s">
         <v>344</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="9" t="s">
         <v>344</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="9" t="s">
         <v>344</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="9" t="s">
         <v>344</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="9" t="s">
         <v>344</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="9" t="s">
         <v>344</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="9" t="s">
         <v>344</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="9" t="s">
         <v>344</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="9" t="s">
         <v>344</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="9" t="s">
         <v>344</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="9" t="s">
         <v>344</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="9" t="s">
         <v>344</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="9" t="s">
         <v>344</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="9" t="s">
         <v>344</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="9" t="s">
         <v>344</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="9" t="s">
         <v>344</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="9" t="s">
         <v>344</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="9" t="s">
         <v>344</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="9" t="s">
         <v>344</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="9" t="s">
         <v>344</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="9" t="s">
         <v>344</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" s="9" t="s">
         <v>344</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" s="9" t="s">
         <v>344</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A392" s="9" t="s">
         <v>344</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" s="9" t="s">
         <v>344</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" s="9" t="s">
         <v>344</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" s="9" t="s">
         <v>344</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" s="9" t="s">
         <v>344</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A397" s="9" t="s">
         <v>344</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A398" s="9" t="s">
         <v>344</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A399" s="9" t="s">
         <v>344</v>
       </c>
@@ -6167,15 +6167,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A402" s="9" t="s">
         <v>388</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A403" s="9" t="s">
         <v>388</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A404" s="9" t="s">
         <v>388</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A405" s="9" t="s">
         <v>388</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A406" s="9" t="s">
         <v>388</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A407" s="9" t="s">
         <v>388</v>
       </c>
@@ -6241,15 +6241,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="11" t="s">
         <v>394</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="411" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="26" t="s">
         <v>394</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6909,16 +6909,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A471" s="9"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -7028,525 +7028,525 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A4:D53"/>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Workspace\DataStructureProblems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Java Algotithms\DataStructureProblems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="491">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1494,6 +1494,12 @@
   </si>
   <si>
     <t>4 functions needed printsol,issafe,solvemaze,solvemazeutil</t>
+  </si>
+  <si>
+    <t>Just add Collections.reverse before returning</t>
+  </si>
+  <si>
+    <t>Maxdepth problem done</t>
   </si>
 </sst>
 </file>
@@ -1887,31 +1893,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="C174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="49.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1922,12 +1928,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1955,7 +1961,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2073,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2320,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2331,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2353,20 +2359,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>43</v>
       </c>
@@ -2377,7 +2383,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>43</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>43</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>43</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>43</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>43</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>43</v>
       </c>
@@ -2476,13 +2482,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>54</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>54</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>54</v>
       </c>
@@ -2546,7 +2552,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>54</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>54</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>54</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>54</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2610,7 +2616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2709,7 +2715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2742,7 +2748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2841,7 +2847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2907,7 +2913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2973,13 +2979,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>98</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -3059,7 +3065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3290,7 +3296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3378,12 +3384,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>135</v>
       </c>
@@ -3394,7 +3400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>135</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>135</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>135</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>135</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>135</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>135</v>
       </c>
@@ -3460,7 +3466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>135</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>135</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>135</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>135</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>135</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>135</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>135</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>135</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>135</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>135</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>135</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>135</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>135</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>135</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>135</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>135</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>135</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>135</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>135</v>
       </c>
@@ -3669,7 +3675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>135</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>135</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>135</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>135</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>135</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>135</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>135</v>
       </c>
@@ -3746,7 +3752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>135</v>
       </c>
@@ -3757,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>135</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>135</v>
       </c>
@@ -3779,12 +3785,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
         <v>172</v>
       </c>
@@ -3795,29 +3801,35 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="6" t="s">
+    <row r="178" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="6" t="s">
+      <c r="C178" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C179" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3828,7 +3840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3839,7 +3851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3850,7 +3862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3861,7 +3873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3872,7 +3884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3883,7 +3895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3894,7 +3906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3905,7 +3917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3916,7 +3928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3927,7 +3939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3938,7 +3950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3949,7 +3961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3960,7 +3972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3971,7 +3983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3982,7 +3994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3993,7 +4005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -4004,7 +4016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -4015,7 +4027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -4026,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -4037,7 +4049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -4048,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -4070,7 +4082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -4081,7 +4093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4092,7 +4104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4103,7 +4115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4114,7 +4126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4125,7 +4137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4136,7 +4148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4147,7 +4159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4158,7 +4170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4169,17 +4181,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -4190,7 +4202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -4201,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4212,7 +4224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4223,7 +4235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4234,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4245,7 +4257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4256,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4278,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4289,7 +4301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4300,7 +4312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4311,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4322,7 +4334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4333,7 +4345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4344,7 +4356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4355,7 +4367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4366,7 +4378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4388,7 +4400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4399,7 +4411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4410,7 +4422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4421,15 +4433,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4440,7 +4452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4451,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4462,7 +4474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4473,7 +4485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4484,7 +4496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4495,7 +4507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4506,7 +4518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4528,7 +4540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4539,7 +4551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4550,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4561,7 +4573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4572,7 +4584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4583,7 +4595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4594,7 +4606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4605,7 +4617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4616,7 +4628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4627,7 +4639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4638,7 +4650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4649,7 +4661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4660,7 +4672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4671,7 +4683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4682,7 +4694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4693,7 +4705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4704,7 +4716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4715,7 +4727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4726,7 +4738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4737,7 +4749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4748,7 +4760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4759,7 +4771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4770,7 +4782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4781,7 +4793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4792,7 +4804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4803,7 +4815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4814,15 +4826,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="11" t="s">
         <v>266</v>
       </c>
@@ -4836,7 +4848,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4847,7 +4859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4858,7 +4870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4869,7 +4881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4880,7 +4892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4891,7 +4903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4902,7 +4914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4913,7 +4925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4924,7 +4936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4935,7 +4947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4946,7 +4958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4968,7 +4980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4979,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4990,7 +5002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -5001,7 +5013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -5012,7 +5024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -5023,7 +5035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -5034,15 +5046,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="11" t="s">
         <v>286</v>
       </c>
@@ -5056,7 +5068,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="11" t="s">
         <v>286</v>
       </c>
@@ -5070,7 +5082,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
         <v>286</v>
       </c>
@@ -5084,7 +5096,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -5095,7 +5107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5106,7 +5118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5117,7 +5129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5128,7 +5140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5139,7 +5151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -5150,7 +5162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -5161,7 +5173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5172,7 +5184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -5183,7 +5195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -5194,7 +5206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -5205,7 +5217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5216,7 +5228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5227,7 +5239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5238,7 +5250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5249,7 +5261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5260,7 +5272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5271,7 +5283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5282,7 +5294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5293,7 +5305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5304,7 +5316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5315,7 +5327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5326,7 +5338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5337,7 +5349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5348,7 +5360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5359,7 +5371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5370,7 +5382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5381,7 +5393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5392,7 +5404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5403,7 +5415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5414,7 +5426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5425,7 +5437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5436,7 +5448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5447,7 +5459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5458,7 +5470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5469,15 +5481,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="9" t="s">
         <v>325</v>
       </c>
@@ -5488,7 +5500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="9" t="s">
         <v>325</v>
       </c>
@@ -5499,7 +5511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="9" t="s">
         <v>325</v>
       </c>
@@ -5510,7 +5522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17" t="s">
         <v>325</v>
       </c>
@@ -5521,7 +5533,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="9" t="s">
         <v>325</v>
       </c>
@@ -5532,7 +5544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="9" t="s">
         <v>325</v>
       </c>
@@ -5543,7 +5555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="9" t="s">
         <v>325</v>
       </c>
@@ -5554,7 +5566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="9" t="s">
         <v>325</v>
       </c>
@@ -5565,7 +5577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="9" t="s">
         <v>325</v>
       </c>
@@ -5576,7 +5588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="9" t="s">
         <v>325</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="9" t="s">
         <v>325</v>
       </c>
@@ -5598,7 +5610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="9" t="s">
         <v>325</v>
       </c>
@@ -5609,7 +5621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="9" t="s">
         <v>325</v>
       </c>
@@ -5620,7 +5632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="9" t="s">
         <v>325</v>
       </c>
@@ -5631,7 +5643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
         <v>325</v>
       </c>
@@ -5642,7 +5654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="9" t="s">
         <v>325</v>
       </c>
@@ -5653,7 +5665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="9" t="s">
         <v>325</v>
       </c>
@@ -5664,7 +5676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
         <v>325</v>
       </c>
@@ -5675,15 +5687,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="9" t="s">
         <v>344</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
         <v>344</v>
       </c>
@@ -5705,7 +5717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
         <v>344</v>
       </c>
@@ -5716,7 +5728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
         <v>344</v>
       </c>
@@ -5727,7 +5739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="9" t="s">
         <v>344</v>
       </c>
@@ -5738,7 +5750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
         <v>344</v>
       </c>
@@ -5749,7 +5761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="9" t="s">
         <v>344</v>
       </c>
@@ -5760,7 +5772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
         <v>344</v>
       </c>
@@ -5771,7 +5783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="9" t="s">
         <v>344</v>
       </c>
@@ -5782,7 +5794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
         <v>344</v>
       </c>
@@ -5793,7 +5805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="9" t="s">
         <v>344</v>
       </c>
@@ -5804,7 +5816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
         <v>344</v>
       </c>
@@ -5815,7 +5827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="9" t="s">
         <v>344</v>
       </c>
@@ -5826,7 +5838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
         <v>344</v>
       </c>
@@ -5837,7 +5849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="9" t="s">
         <v>344</v>
       </c>
@@ -5848,7 +5860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="9" t="s">
         <v>344</v>
       </c>
@@ -5859,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="9" t="s">
         <v>344</v>
       </c>
@@ -5870,7 +5882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
         <v>344</v>
       </c>
@@ -5881,7 +5893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="9" t="s">
         <v>344</v>
       </c>
@@ -5892,7 +5904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
         <v>344</v>
       </c>
@@ -5903,7 +5915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
         <v>344</v>
       </c>
@@ -5914,7 +5926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
         <v>344</v>
       </c>
@@ -5925,7 +5937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="9" t="s">
         <v>344</v>
       </c>
@@ -5936,7 +5948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
         <v>344</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="9" t="s">
         <v>344</v>
       </c>
@@ -5958,7 +5970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
         <v>344</v>
       </c>
@@ -5969,7 +5981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="9" t="s">
         <v>344</v>
       </c>
@@ -5980,7 +5992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
         <v>344</v>
       </c>
@@ -5991,7 +6003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="9" t="s">
         <v>344</v>
       </c>
@@ -6002,7 +6014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
         <v>344</v>
       </c>
@@ -6013,7 +6025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="9" t="s">
         <v>344</v>
       </c>
@@ -6024,7 +6036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
         <v>344</v>
       </c>
@@ -6035,7 +6047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
         <v>344</v>
       </c>
@@ -6046,7 +6058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
         <v>344</v>
       </c>
@@ -6057,7 +6069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="9" t="s">
         <v>344</v>
       </c>
@@ -6068,7 +6080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
         <v>344</v>
       </c>
@@ -6079,7 +6091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="9" t="s">
         <v>344</v>
       </c>
@@ -6090,7 +6102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
         <v>344</v>
       </c>
@@ -6101,7 +6113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="9" t="s">
         <v>344</v>
       </c>
@@ -6112,7 +6124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
         <v>344</v>
       </c>
@@ -6123,7 +6135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
         <v>344</v>
       </c>
@@ -6134,7 +6146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
         <v>344</v>
       </c>
@@ -6145,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="9" t="s">
         <v>344</v>
       </c>
@@ -6156,7 +6168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
         <v>344</v>
       </c>
@@ -6167,15 +6179,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="9" t="s">
         <v>388</v>
       </c>
@@ -6186,7 +6198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
         <v>388</v>
       </c>
@@ -6197,7 +6209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="9" t="s">
         <v>388</v>
       </c>
@@ -6208,7 +6220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
         <v>388</v>
       </c>
@@ -6219,7 +6231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9" t="s">
         <v>388</v>
       </c>
@@ -6230,7 +6242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
         <v>388</v>
       </c>
@@ -6241,15 +6253,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="11" t="s">
         <v>394</v>
       </c>
@@ -6260,7 +6272,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="411" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="26" t="s">
         <v>394</v>
       </c>
@@ -6271,7 +6283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6282,7 +6294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6293,7 +6305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6304,7 +6316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6315,7 +6327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6326,7 +6338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6337,7 +6349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6348,7 +6360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6359,7 +6371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6370,7 +6382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6381,7 +6393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6392,7 +6404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6403,7 +6415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6414,7 +6426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6425,7 +6437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6436,7 +6448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6447,7 +6459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6458,7 +6470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6469,7 +6481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6480,7 +6492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6491,7 +6503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6502,7 +6514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6513,7 +6525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6524,7 +6536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6535,7 +6547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6546,7 +6558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6557,7 +6569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6568,7 +6580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6579,7 +6591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6590,7 +6602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6601,7 +6613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6612,7 +6624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6623,7 +6635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6634,7 +6646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6645,7 +6657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6656,7 +6668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6667,7 +6679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6678,7 +6690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6689,7 +6701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6700,7 +6712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6711,7 +6723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6722,7 +6734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6733,7 +6745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6744,7 +6756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6755,7 +6767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6766,7 +6778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6777,7 +6789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6788,7 +6800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6799,7 +6811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6810,7 +6822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6821,7 +6833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6832,7 +6844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6843,7 +6855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6854,7 +6866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6865,7 +6877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6876,7 +6888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6887,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6898,7 +6910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6909,16 +6921,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="9"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6929,7 +6941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6940,7 +6952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6951,7 +6963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6962,7 +6974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6973,7 +6985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6984,7 +6996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6995,7 +7007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -7006,7 +7018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -7017,7 +7029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -7028,525 +7040,525 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A4:D53"/>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="492">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1500,6 +1500,9 @@
   </si>
   <si>
     <t>Maxdepth problem done</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1893,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3829,59 +3832,62 @@
         <v>490</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
+    <row r="180" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+      <c r="C180" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
+      <c r="C181" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+      <c r="C182" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
+      <c r="C183" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>5</v>
+      <c r="C184" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186:C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3890,48 +3890,48 @@
         <v>465</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
+    <row r="185" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
+      <c r="C185" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
+      <c r="C186" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="s">
+      <c r="C187" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="5" t="s">
-        <v>5</v>
+      <c r="C188" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1614,7 +1614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1679,6 +1679,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1896,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186:C188"/>
+    <sheetView tabSelected="1" topLeftCell="C185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190:C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3934,36 +3935,36 @@
         <v>465</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="s">
+    <row r="189" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="6" t="s">
+      <c r="C189" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="s">
+      <c r="C190" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="20" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190:C191"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4198,15 +4198,15 @@
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="6" t="s">
+    <row r="214" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>5</v>
+      <c r="C214" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4209,36 +4209,36 @@
         <v>465</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="6" t="s">
+    <row r="215" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="6" t="s">
+      <c r="C215" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="6" t="s">
+      <c r="C216" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="20" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1576,7 +1576,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1601,6 +1601,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1614,7 +1620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1680,6 +1686,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1897,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4232,7 +4241,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="18" t="s">
+      <c r="A217" s="31" t="s">
         <v>208</v>
       </c>
       <c r="B217" s="30" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1576,7 +1576,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1601,12 +1601,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1620,7 +1614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1686,9 +1680,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1906,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218:XFD218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4240,25 +4231,25 @@
         <v>465</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="31" t="s">
+    <row r="217" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B217" s="30" t="s">
+      <c r="B217" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C217" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="6" t="s">
+      <c r="C217" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="15" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="493">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1503,6 +1503,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>No Tag for company</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1579,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1601,6 +1604,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1614,7 +1623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1680,6 +1689,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1897,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218:XFD218"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4155,7 +4175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4166,7 +4186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4177,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4188,17 +4208,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11" t="s">
         <v>208</v>
       </c>
@@ -4209,7 +4229,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="215" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11" t="s">
         <v>208</v>
       </c>
@@ -4220,7 +4240,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="216" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
         <v>208</v>
       </c>
@@ -4231,7 +4251,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11" t="s">
         <v>208</v>
       </c>
@@ -4239,10 +4259,10 @@
         <v>212</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11" t="s">
         <v>208</v>
       </c>
@@ -4250,32 +4270,35 @@
         <v>213</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="6" t="s">
+      <c r="C219" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="34" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="C220" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4286,7 +4309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4297,7 +4320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4308,7 +4331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1917,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4295,18 +4295,18 @@
         <v>215</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>5</v>
+      <c r="C221" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Java Algotithms\DataStructureProblems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Workspace\DataStructureProblems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="494">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1506,6 +1506,9 @@
   </si>
   <si>
     <t>No Tag for company</t>
+  </si>
+  <si>
+    <t>No company tag</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1699,6 +1702,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1917,31 +1923,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1952,12 +1958,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>6</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2383,20 +2389,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
         <v>43</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17" t="s">
         <v>43</v>
       </c>
@@ -2418,18 +2424,21 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
         <v>43</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -2451,7 +2460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="9" t="s">
         <v>43</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="9" t="s">
         <v>43</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="9" t="s">
         <v>43</v>
       </c>
@@ -2506,13 +2515,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
@@ -2537,7 +2546,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>54</v>
       </c>
@@ -2551,7 +2560,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18" t="s">
         <v>54</v>
       </c>
@@ -2562,7 +2571,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>54</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>54</v>
       </c>
@@ -2590,7 +2599,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="22" t="s">
         <v>54</v>
       </c>
@@ -2604,7 +2613,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>54</v>
       </c>
@@ -2618,7 +2627,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="26" t="s">
         <v>54</v>
       </c>
@@ -2629,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2640,7 +2649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2651,7 +2660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2662,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2673,7 +2682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2684,7 +2693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2695,7 +2704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2717,7 +2726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2739,7 +2748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2750,7 +2759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2761,7 +2770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2772,7 +2781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2783,7 +2792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2794,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2805,7 +2814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2816,7 +2825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2827,7 +2836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2838,7 +2847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2849,7 +2858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2860,7 +2869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2871,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2893,7 +2902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2904,7 +2913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2926,7 +2935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2937,7 +2946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2948,7 +2957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2959,7 +2968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2970,7 +2979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2992,7 +3001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -3003,13 +3012,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="11" t="s">
         <v>98</v>
       </c>
@@ -3023,18 +3032,18 @@
         <v>476</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -3045,7 +3054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -3056,7 +3065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -3067,7 +3076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -3078,7 +3087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -3089,7 +3098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -3100,7 +3109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -3111,7 +3120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3122,7 +3131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3133,7 +3142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3144,7 +3153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3155,7 +3164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3188,7 +3197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3210,7 +3219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3221,7 +3230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3232,7 +3241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3243,7 +3252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3265,7 +3274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3276,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3287,7 +3296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3298,7 +3307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3309,7 +3318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3331,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3353,7 +3362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3364,7 +3373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3408,34 +3417,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
+    <row r="139" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="9" t="s">
+      <c r="C139" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="9" t="s">
         <v>135</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="9" t="s">
         <v>135</v>
       </c>
@@ -3457,7 +3466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="9" t="s">
         <v>135</v>
       </c>
@@ -3468,7 +3477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="9" t="s">
         <v>135</v>
       </c>
@@ -3479,7 +3488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="9" t="s">
         <v>135</v>
       </c>
@@ -3490,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="9" t="s">
         <v>135</v>
       </c>
@@ -3501,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="9" t="s">
         <v>135</v>
       </c>
@@ -3512,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="9" t="s">
         <v>135</v>
       </c>
@@ -3523,7 +3532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="9" t="s">
         <v>135</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="9" t="s">
         <v>135</v>
       </c>
@@ -3545,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="9" t="s">
         <v>135</v>
       </c>
@@ -3556,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="9" t="s">
         <v>135</v>
       </c>
@@ -3567,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="9" t="s">
         <v>135</v>
       </c>
@@ -3578,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="9" t="s">
         <v>135</v>
       </c>
@@ -3589,7 +3598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="9" t="s">
         <v>135</v>
       </c>
@@ -3600,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="9" t="s">
         <v>135</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="9" t="s">
         <v>135</v>
       </c>
@@ -3622,7 +3631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="9" t="s">
         <v>135</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="9" t="s">
         <v>135</v>
       </c>
@@ -3644,7 +3653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="9" t="s">
         <v>135</v>
       </c>
@@ -3655,7 +3664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="9" t="s">
         <v>135</v>
       </c>
@@ -3666,7 +3675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="9" t="s">
         <v>135</v>
       </c>
@@ -3677,7 +3686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="9" t="s">
         <v>135</v>
       </c>
@@ -3688,7 +3697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="9" t="s">
         <v>135</v>
       </c>
@@ -3699,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="9" t="s">
         <v>135</v>
       </c>
@@ -3710,7 +3719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="9" t="s">
         <v>135</v>
       </c>
@@ -3721,7 +3730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="9" t="s">
         <v>135</v>
       </c>
@@ -3732,7 +3741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="9" t="s">
         <v>135</v>
       </c>
@@ -3743,7 +3752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="9" t="s">
         <v>135</v>
       </c>
@@ -3754,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="9" t="s">
         <v>135</v>
       </c>
@@ -3765,7 +3774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="9" t="s">
         <v>135</v>
       </c>
@@ -3776,7 +3785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="9" t="s">
         <v>135</v>
       </c>
@@ -3787,7 +3796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="9" t="s">
         <v>135</v>
       </c>
@@ -3798,7 +3807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="9" t="s">
         <v>135</v>
       </c>
@@ -3809,12 +3818,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="11" t="s">
         <v>172</v>
       </c>
@@ -3825,7 +3834,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="11" t="s">
         <v>172</v>
       </c>
@@ -3839,7 +3848,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="11" t="s">
         <v>172</v>
       </c>
@@ -3853,7 +3862,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="11" t="s">
         <v>172</v>
       </c>
@@ -3867,7 +3876,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="11" t="s">
         <v>172</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="11" t="s">
         <v>172</v>
       </c>
@@ -3889,7 +3898,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="11" t="s">
         <v>172</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="11" t="s">
         <v>172</v>
       </c>
@@ -3911,7 +3920,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="11" t="s">
         <v>172</v>
       </c>
@@ -3922,7 +3931,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="11" t="s">
         <v>172</v>
       </c>
@@ -3933,7 +3942,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="11" t="s">
         <v>172</v>
       </c>
@@ -3944,7 +3953,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="11" t="s">
         <v>172</v>
       </c>
@@ -3955,7 +3964,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="11" t="s">
         <v>172</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="11" t="s">
         <v>172</v>
       </c>
@@ -3977,7 +3986,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="18" t="s">
         <v>172</v>
       </c>
@@ -3988,7 +3997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3999,7 +4008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -4010,7 +4019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -4021,7 +4030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -4032,7 +4041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -4076,7 +4085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -4087,7 +4096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -4098,7 +4107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -4109,7 +4118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4131,7 +4140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4142,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4153,7 +4162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4164,7 +4173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4175,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4186,7 +4195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4197,7 +4206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4208,17 +4217,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="11" t="s">
         <v>208</v>
       </c>
@@ -4229,7 +4238,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="11" t="s">
         <v>208</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="11" t="s">
         <v>208</v>
       </c>
@@ -4251,7 +4260,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="217" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="11" t="s">
         <v>208</v>
       </c>
@@ -4262,7 +4271,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="11" t="s">
         <v>208</v>
       </c>
@@ -4273,7 +4282,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="31" t="s">
         <v>208</v>
       </c>
@@ -4287,7 +4296,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="11" t="s">
         <v>208</v>
       </c>
@@ -4298,7 +4307,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="221" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="11" t="s">
         <v>208</v>
       </c>
@@ -4309,7 +4318,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4320,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4331,7 +4340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4342,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4353,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4364,7 +4373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4375,7 +4384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4386,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4397,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4419,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4430,7 +4439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4441,7 +4450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4452,7 +4461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4463,15 +4472,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4482,7 +4491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4493,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4504,7 +4513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4515,7 +4524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4537,7 +4546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4559,7 +4568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4570,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4581,7 +4590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4592,7 +4601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4603,7 +4612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4636,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4647,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4658,7 +4667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4669,7 +4678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4691,7 +4700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4702,7 +4711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4713,7 +4722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4724,7 +4733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4735,7 +4744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4746,7 +4755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4757,7 +4766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4768,7 +4777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4779,7 +4788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4790,7 +4799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4801,7 +4810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4812,7 +4821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4823,7 +4832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4834,7 +4843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4845,7 +4854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4856,15 +4865,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="11" t="s">
         <v>266</v>
       </c>
@@ -4878,7 +4887,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4889,7 +4898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4900,7 +4909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4911,7 +4920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4922,7 +4931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4933,7 +4942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4944,7 +4953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4955,7 +4964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4966,7 +4975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4977,7 +4986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4988,7 +4997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4999,7 +5008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -5010,7 +5019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -5021,7 +5030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -5032,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -5043,7 +5052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -5054,7 +5063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -5065,7 +5074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -5076,15 +5085,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="11" t="s">
         <v>286</v>
       </c>
@@ -5098,7 +5107,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="11" t="s">
         <v>286</v>
       </c>
@@ -5112,7 +5121,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="11" t="s">
         <v>286</v>
       </c>
@@ -5126,7 +5135,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -5137,7 +5146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5148,7 +5157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5159,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5170,7 +5179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5181,7 +5190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -5192,7 +5201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -5203,7 +5212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5214,7 +5223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -5225,7 +5234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -5236,7 +5245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -5247,7 +5256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5258,7 +5267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5269,7 +5278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5280,7 +5289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5291,7 +5300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5302,7 +5311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5313,7 +5322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5324,7 +5333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5335,7 +5344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5346,7 +5355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5357,7 +5366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5368,7 +5377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5390,7 +5399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5401,7 +5410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5412,7 +5421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5423,7 +5432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5434,7 +5443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5445,7 +5454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5456,7 +5465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5467,7 +5476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5489,7 +5498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5500,7 +5509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5511,15 +5520,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="9" t="s">
         <v>325</v>
       </c>
@@ -5530,7 +5539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="9" t="s">
         <v>325</v>
       </c>
@@ -5541,7 +5550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="9" t="s">
         <v>325</v>
       </c>
@@ -5552,7 +5561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="17" t="s">
         <v>325</v>
       </c>
@@ -5563,7 +5572,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="9" t="s">
         <v>325</v>
       </c>
@@ -5574,7 +5583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="9" t="s">
         <v>325</v>
       </c>
@@ -5585,7 +5594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="9" t="s">
         <v>325</v>
       </c>
@@ -5596,7 +5605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="9" t="s">
         <v>325</v>
       </c>
@@ -5607,7 +5616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="9" t="s">
         <v>325</v>
       </c>
@@ -5618,7 +5627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="9" t="s">
         <v>325</v>
       </c>
@@ -5629,7 +5638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="9" t="s">
         <v>325</v>
       </c>
@@ -5640,7 +5649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="9" t="s">
         <v>325</v>
       </c>
@@ -5651,7 +5660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="9" t="s">
         <v>325</v>
       </c>
@@ -5662,7 +5671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="9" t="s">
         <v>325</v>
       </c>
@@ -5673,7 +5682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="9" t="s">
         <v>325</v>
       </c>
@@ -5684,7 +5693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="9" t="s">
         <v>325</v>
       </c>
@@ -5695,7 +5704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="9" t="s">
         <v>325</v>
       </c>
@@ -5706,7 +5715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="9" t="s">
         <v>325</v>
       </c>
@@ -5717,15 +5726,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="9" t="s">
         <v>344</v>
       </c>
@@ -5736,7 +5745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="9" t="s">
         <v>344</v>
       </c>
@@ -5747,7 +5756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="9" t="s">
         <v>344</v>
       </c>
@@ -5758,7 +5767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="9" t="s">
         <v>344</v>
       </c>
@@ -5769,7 +5778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="9" t="s">
         <v>344</v>
       </c>
@@ -5780,7 +5789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="9" t="s">
         <v>344</v>
       </c>
@@ -5791,7 +5800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="9" t="s">
         <v>344</v>
       </c>
@@ -5802,7 +5811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="9" t="s">
         <v>344</v>
       </c>
@@ -5813,7 +5822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="9" t="s">
         <v>344</v>
       </c>
@@ -5824,7 +5833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="9" t="s">
         <v>344</v>
       </c>
@@ -5835,7 +5844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="9" t="s">
         <v>344</v>
       </c>
@@ -5846,7 +5855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="9" t="s">
         <v>344</v>
       </c>
@@ -5857,7 +5866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="9" t="s">
         <v>344</v>
       </c>
@@ -5868,7 +5877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="9" t="s">
         <v>344</v>
       </c>
@@ -5879,7 +5888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="9" t="s">
         <v>344</v>
       </c>
@@ -5890,7 +5899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="9" t="s">
         <v>344</v>
       </c>
@@ -5901,7 +5910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="9" t="s">
         <v>344</v>
       </c>
@@ -5912,7 +5921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="9" t="s">
         <v>344</v>
       </c>
@@ -5923,7 +5932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="9" t="s">
         <v>344</v>
       </c>
@@ -5934,7 +5943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="9" t="s">
         <v>344</v>
       </c>
@@ -5945,7 +5954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="9" t="s">
         <v>344</v>
       </c>
@@ -5956,7 +5965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="9" t="s">
         <v>344</v>
       </c>
@@ -5967,7 +5976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="9" t="s">
         <v>344</v>
       </c>
@@ -5978,7 +5987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="9" t="s">
         <v>344</v>
       </c>
@@ -5989,7 +5998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="9" t="s">
         <v>344</v>
       </c>
@@ -6000,7 +6009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="9" t="s">
         <v>344</v>
       </c>
@@ -6011,7 +6020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="9" t="s">
         <v>344</v>
       </c>
@@ -6022,7 +6031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="9" t="s">
         <v>344</v>
       </c>
@@ -6033,7 +6042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="9" t="s">
         <v>344</v>
       </c>
@@ -6044,7 +6053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="9" t="s">
         <v>344</v>
       </c>
@@ -6055,7 +6064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="9" t="s">
         <v>344</v>
       </c>
@@ -6066,7 +6075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="9" t="s">
         <v>344</v>
       </c>
@@ -6077,7 +6086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="9" t="s">
         <v>344</v>
       </c>
@@ -6088,7 +6097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="9" t="s">
         <v>344</v>
       </c>
@@ -6099,7 +6108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" s="9" t="s">
         <v>344</v>
       </c>
@@ -6110,7 +6119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" s="9" t="s">
         <v>344</v>
       </c>
@@ -6121,7 +6130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A392" s="9" t="s">
         <v>344</v>
       </c>
@@ -6132,7 +6141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" s="9" t="s">
         <v>344</v>
       </c>
@@ -6143,7 +6152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" s="9" t="s">
         <v>344</v>
       </c>
@@ -6154,7 +6163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" s="9" t="s">
         <v>344</v>
       </c>
@@ -6165,7 +6174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" s="9" t="s">
         <v>344</v>
       </c>
@@ -6176,7 +6185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A397" s="9" t="s">
         <v>344</v>
       </c>
@@ -6187,7 +6196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A398" s="9" t="s">
         <v>344</v>
       </c>
@@ -6198,7 +6207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A399" s="9" t="s">
         <v>344</v>
       </c>
@@ -6209,15 +6218,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A402" s="9" t="s">
         <v>388</v>
       </c>
@@ -6228,7 +6237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A403" s="9" t="s">
         <v>388</v>
       </c>
@@ -6239,7 +6248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A404" s="9" t="s">
         <v>388</v>
       </c>
@@ -6250,7 +6259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A405" s="9" t="s">
         <v>388</v>
       </c>
@@ -6261,7 +6270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A406" s="9" t="s">
         <v>388</v>
       </c>
@@ -6272,7 +6281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A407" s="9" t="s">
         <v>388</v>
       </c>
@@ -6283,15 +6292,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="11" t="s">
         <v>394</v>
       </c>
@@ -6302,7 +6311,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="411" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="26" t="s">
         <v>394</v>
       </c>
@@ -6313,7 +6322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6324,7 +6333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6335,7 +6344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6346,7 +6355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6357,7 +6366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6368,7 +6377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6379,7 +6388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6390,7 +6399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6401,7 +6410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6412,7 +6421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6423,7 +6432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6434,7 +6443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6445,7 +6454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6456,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6467,7 +6476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6478,7 +6487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6489,7 +6498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6500,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6511,7 +6520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6522,7 +6531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6533,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6544,7 +6553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6555,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6566,7 +6575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6577,7 +6586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6588,7 +6597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6599,7 +6608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6610,7 +6619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6621,7 +6630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6632,7 +6641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6643,7 +6652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6654,7 +6663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6665,7 +6674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6676,7 +6685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6687,7 +6696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6698,7 +6707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6709,7 +6718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6720,7 +6729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6731,7 +6740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6742,7 +6751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6753,7 +6762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6764,7 +6773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6775,7 +6784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6786,7 +6795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6797,7 +6806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6808,7 +6817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6819,7 +6828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6830,7 +6839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6841,7 +6850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6852,7 +6861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6863,7 +6872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6874,7 +6883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6885,7 +6894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6896,7 +6905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6918,7 +6927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6929,7 +6938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6940,7 +6949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6951,16 +6960,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A471" s="9"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6971,7 +6980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6982,7 +6991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6993,7 +7002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -7004,7 +7013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -7015,7 +7024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -7026,7 +7035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -7037,7 +7046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -7048,7 +7057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -7059,7 +7068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -7070,525 +7079,525 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A4:D53"/>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="495">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1509,6 +1509,9 @@
   </si>
   <si>
     <t>No company tag</t>
+  </si>
+  <si>
+    <t>Not req for now</t>
   </si>
 </sst>
 </file>
@@ -1923,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4318,36 +4321,39 @@
         <v>465</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="6" t="s">
+    <row r="222" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="C222" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="6" t="s">
+      <c r="C222" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C223" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="6" t="s">
+      <c r="C223" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="C224" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8049,6 +8055,6 @@
     <hyperlink ref="B481" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Workspace\DataStructureProblems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\Java Algotithms\DataStructureProblems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="497">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1512,6 +1512,12 @@
   </si>
   <si>
     <t>Not req for now</t>
+  </si>
+  <si>
+    <t>No Company tag</t>
+  </si>
+  <si>
+    <t>Related to Morris Traversal</t>
   </si>
 </sst>
 </file>
@@ -1926,31 +1932,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="49.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1961,12 +1967,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2392,20 +2398,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>43</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>43</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
         <v>43</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>43</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>43</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>43</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>43</v>
       </c>
@@ -2518,13 +2524,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>54</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>54</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>54</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>54</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>54</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>54</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>54</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2817,7 +2823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -3015,13 +3021,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>98</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
         <v>98</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3134,7 +3140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3299,7 +3305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3321,7 +3327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3387,7 +3393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3420,12 +3426,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
         <v>135</v>
       </c>
@@ -3436,7 +3442,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="36" t="s">
         <v>135</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>135</v>
       </c>
@@ -3458,7 +3464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>135</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>135</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>135</v>
       </c>
@@ -3491,7 +3497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>135</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>135</v>
       </c>
@@ -3513,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>135</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>135</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>135</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>135</v>
       </c>
@@ -3557,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>135</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>135</v>
       </c>
@@ -3579,7 +3585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>135</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>135</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>135</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>135</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>135</v>
       </c>
@@ -3634,7 +3640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>135</v>
       </c>
@@ -3645,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>135</v>
       </c>
@@ -3656,7 +3662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>135</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>135</v>
       </c>
@@ -3678,7 +3684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>135</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>135</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>135</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>135</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>135</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>135</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>135</v>
       </c>
@@ -3755,7 +3761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>135</v>
       </c>
@@ -3766,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>135</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>135</v>
       </c>
@@ -3788,7 +3794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>135</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>135</v>
       </c>
@@ -3810,7 +3816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>135</v>
       </c>
@@ -3821,12 +3827,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
         <v>172</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
         <v>172</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>172</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>172</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
         <v>172</v>
       </c>
@@ -3890,7 +3896,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
         <v>172</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
         <v>172</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11" t="s">
         <v>172</v>
       </c>
@@ -3923,7 +3929,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11" t="s">
         <v>172</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
         <v>172</v>
       </c>
@@ -3945,7 +3951,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
         <v>172</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
         <v>172</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="11" t="s">
         <v>172</v>
       </c>
@@ -3978,7 +3984,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11" t="s">
         <v>172</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="18" t="s">
         <v>172</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -4033,7 +4039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -4044,7 +4050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -4066,7 +4072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -4077,7 +4083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -4088,7 +4094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4165,7 +4171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4198,7 +4204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4220,17 +4226,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11" t="s">
         <v>208</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11" t="s">
         <v>208</v>
       </c>
@@ -4252,7 +4258,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
         <v>208</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="217" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11" t="s">
         <v>208</v>
       </c>
@@ -4274,7 +4280,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11" t="s">
         <v>208</v>
       </c>
@@ -4285,7 +4291,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="31" t="s">
         <v>208</v>
       </c>
@@ -4299,7 +4305,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11" t="s">
         <v>208</v>
       </c>
@@ -4310,7 +4316,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="221" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11" t="s">
         <v>208</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="222" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="31" t="s">
         <v>208</v>
       </c>
@@ -4335,7 +4341,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="223" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
         <v>208</v>
       </c>
@@ -4346,62 +4352,68 @@
         <v>465</v>
       </c>
     </row>
-    <row r="224" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="18" t="s">
+    <row r="224" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B224" s="30" t="s">
+      <c r="B224" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C224" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="6" t="s">
+      <c r="C224" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C225" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="6" t="s">
+      <c r="C225" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C226" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="6" t="s">
+      <c r="C226" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="6" t="s">
+      <c r="C227" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C228" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C228" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4412,7 +4424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4423,7 +4435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4434,7 +4446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4445,7 +4457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4456,7 +4468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4478,15 +4490,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4508,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4519,7 +4531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4530,7 +4542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4541,7 +4553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4552,7 +4564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4563,7 +4575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4574,7 +4586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4585,7 +4597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4596,7 +4608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4618,7 +4630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4629,7 +4641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4640,7 +4652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4651,7 +4663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4662,7 +4674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4684,7 +4696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4695,7 +4707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4706,7 +4718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4717,7 +4729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4728,7 +4740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4739,7 +4751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4750,7 +4762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4761,7 +4773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4772,7 +4784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4783,7 +4795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4794,7 +4806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4805,7 +4817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4816,7 +4828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4827,7 +4839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4849,7 +4861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4871,15 +4883,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="11" t="s">
         <v>266</v>
       </c>
@@ -4893,7 +4905,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4904,7 +4916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4915,7 +4927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4926,7 +4938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4937,7 +4949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4948,7 +4960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4959,7 +4971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4970,7 +4982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4981,7 +4993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4992,7 +5004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -5003,7 +5015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -5014,7 +5026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -5025,7 +5037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -5036,7 +5048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -5047,7 +5059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -5058,7 +5070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -5069,7 +5081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -5080,7 +5092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -5091,15 +5103,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="11" t="s">
         <v>286</v>
       </c>
@@ -5113,7 +5125,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="11" t="s">
         <v>286</v>
       </c>
@@ -5127,7 +5139,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
         <v>286</v>
       </c>
@@ -5141,7 +5153,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -5152,7 +5164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5163,7 +5175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5174,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5185,7 +5197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5196,7 +5208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -5207,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -5218,7 +5230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5229,7 +5241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -5240,7 +5252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -5251,7 +5263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -5262,7 +5274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5273,7 +5285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5284,7 +5296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5295,7 +5307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5306,7 +5318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5317,7 +5329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5328,7 +5340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5339,7 +5351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5350,7 +5362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5361,7 +5373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5372,7 +5384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5383,7 +5395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5394,7 +5406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5405,7 +5417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5416,7 +5428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5438,7 +5450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5449,7 +5461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5460,7 +5472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5471,7 +5483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5493,7 +5505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5504,7 +5516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5515,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5526,15 +5538,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="9" t="s">
         <v>325</v>
       </c>
@@ -5545,7 +5557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="9" t="s">
         <v>325</v>
       </c>
@@ -5556,7 +5568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="9" t="s">
         <v>325</v>
       </c>
@@ -5567,7 +5579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17" t="s">
         <v>325</v>
       </c>
@@ -5578,7 +5590,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="9" t="s">
         <v>325</v>
       </c>
@@ -5589,7 +5601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="9" t="s">
         <v>325</v>
       </c>
@@ -5600,7 +5612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="9" t="s">
         <v>325</v>
       </c>
@@ -5611,7 +5623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="9" t="s">
         <v>325</v>
       </c>
@@ -5622,7 +5634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="9" t="s">
         <v>325</v>
       </c>
@@ -5633,7 +5645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="9" t="s">
         <v>325</v>
       </c>
@@ -5644,7 +5656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="9" t="s">
         <v>325</v>
       </c>
@@ -5655,7 +5667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="9" t="s">
         <v>325</v>
       </c>
@@ -5666,7 +5678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="9" t="s">
         <v>325</v>
       </c>
@@ -5677,7 +5689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="9" t="s">
         <v>325</v>
       </c>
@@ -5688,7 +5700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
         <v>325</v>
       </c>
@@ -5699,7 +5711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="9" t="s">
         <v>325</v>
       </c>
@@ -5710,7 +5722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="9" t="s">
         <v>325</v>
       </c>
@@ -5721,7 +5733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
         <v>325</v>
       </c>
@@ -5732,15 +5744,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="9" t="s">
         <v>344</v>
       </c>
@@ -5751,7 +5763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
         <v>344</v>
       </c>
@@ -5762,7 +5774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
         <v>344</v>
       </c>
@@ -5773,7 +5785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
         <v>344</v>
       </c>
@@ -5784,7 +5796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="9" t="s">
         <v>344</v>
       </c>
@@ -5795,7 +5807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
         <v>344</v>
       </c>
@@ -5806,7 +5818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="9" t="s">
         <v>344</v>
       </c>
@@ -5817,7 +5829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
         <v>344</v>
       </c>
@@ -5828,7 +5840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="9" t="s">
         <v>344</v>
       </c>
@@ -5839,7 +5851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
         <v>344</v>
       </c>
@@ -5850,7 +5862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="9" t="s">
         <v>344</v>
       </c>
@@ -5861,7 +5873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
         <v>344</v>
       </c>
@@ -5872,7 +5884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="9" t="s">
         <v>344</v>
       </c>
@@ -5883,7 +5895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
         <v>344</v>
       </c>
@@ -5894,7 +5906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="9" t="s">
         <v>344</v>
       </c>
@@ -5905,7 +5917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="9" t="s">
         <v>344</v>
       </c>
@@ -5916,7 +5928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="9" t="s">
         <v>344</v>
       </c>
@@ -5927,7 +5939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
         <v>344</v>
       </c>
@@ -5938,7 +5950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="9" t="s">
         <v>344</v>
       </c>
@@ -5949,7 +5961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
         <v>344</v>
       </c>
@@ -5960,7 +5972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
         <v>344</v>
       </c>
@@ -5971,7 +5983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
         <v>344</v>
       </c>
@@ -5982,7 +5994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="9" t="s">
         <v>344</v>
       </c>
@@ -5993,7 +6005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
         <v>344</v>
       </c>
@@ -6004,7 +6016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="9" t="s">
         <v>344</v>
       </c>
@@ -6015,7 +6027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
         <v>344</v>
       </c>
@@ -6026,7 +6038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="9" t="s">
         <v>344</v>
       </c>
@@ -6037,7 +6049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
         <v>344</v>
       </c>
@@ -6048,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="9" t="s">
         <v>344</v>
       </c>
@@ -6059,7 +6071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
         <v>344</v>
       </c>
@@ -6070,7 +6082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="9" t="s">
         <v>344</v>
       </c>
@@ -6081,7 +6093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
         <v>344</v>
       </c>
@@ -6092,7 +6104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
         <v>344</v>
       </c>
@@ -6103,7 +6115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
         <v>344</v>
       </c>
@@ -6114,7 +6126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="9" t="s">
         <v>344</v>
       </c>
@@ -6125,7 +6137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
         <v>344</v>
       </c>
@@ -6136,7 +6148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="9" t="s">
         <v>344</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
         <v>344</v>
       </c>
@@ -6158,7 +6170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="9" t="s">
         <v>344</v>
       </c>
@@ -6169,7 +6181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
         <v>344</v>
       </c>
@@ -6180,7 +6192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
         <v>344</v>
       </c>
@@ -6191,7 +6203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
         <v>344</v>
       </c>
@@ -6202,7 +6214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="9" t="s">
         <v>344</v>
       </c>
@@ -6213,7 +6225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
         <v>344</v>
       </c>
@@ -6224,15 +6236,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="9" t="s">
         <v>388</v>
       </c>
@@ -6243,7 +6255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
         <v>388</v>
       </c>
@@ -6254,7 +6266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="9" t="s">
         <v>388</v>
       </c>
@@ -6265,7 +6277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
         <v>388</v>
       </c>
@@ -6276,7 +6288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9" t="s">
         <v>388</v>
       </c>
@@ -6287,7 +6299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
         <v>388</v>
       </c>
@@ -6298,15 +6310,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="11" t="s">
         <v>394</v>
       </c>
@@ -6317,7 +6329,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="411" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="26" t="s">
         <v>394</v>
       </c>
@@ -6328,7 +6340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6339,7 +6351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6350,7 +6362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6361,7 +6373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6372,7 +6384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6383,7 +6395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6394,7 +6406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6405,7 +6417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6416,7 +6428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6427,7 +6439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6438,7 +6450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6449,7 +6461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6460,7 +6472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6471,7 +6483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6482,7 +6494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6493,7 +6505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6504,7 +6516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6515,7 +6527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6526,7 +6538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6537,7 +6549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6548,7 +6560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6559,7 +6571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6570,7 +6582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6581,7 +6593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6592,7 +6604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6614,7 +6626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6625,7 +6637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6636,7 +6648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6647,7 +6659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6658,7 +6670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6669,7 +6681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6680,7 +6692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6691,7 +6703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6702,7 +6714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6713,7 +6725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6724,7 +6736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6735,7 +6747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6746,7 +6758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6757,7 +6769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6768,7 +6780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6779,7 +6791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6790,7 +6802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6801,7 +6813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6812,7 +6824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6823,7 +6835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6834,7 +6846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6845,7 +6857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6856,7 +6868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6878,7 +6890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6889,7 +6901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6900,7 +6912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6911,7 +6923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6922,7 +6934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6933,7 +6945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6944,7 +6956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6955,7 +6967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6966,16 +6978,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="9"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6986,7 +6998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6997,7 +7009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -7008,7 +7020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -7019,7 +7031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -7030,7 +7042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -7041,7 +7053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -7052,7 +7064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -7063,7 +7075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -7074,7 +7086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -7085,525 +7097,525 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A4:D53"/>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="498">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1518,6 +1518,9 @@
   </si>
   <si>
     <t>Related to Morris Traversal</t>
+  </si>
+  <si>
+    <t>Inclusive high and low</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1700,7 +1703,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1932,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView tabSelected="1" topLeftCell="C180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191:C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2434,7 +2436,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3443,7 +3445,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="36" t="s">
+      <c r="A140" s="35" t="s">
         <v>135</v>
       </c>
       <c r="B140" s="27" t="s">
@@ -3995,26 +3997,26 @@
         <v>465</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="18" t="s">
+    <row r="191" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B191" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
+      <c r="C191" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>5</v>
+      <c r="C192" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4291,17 +4293,17 @@
         <v>465</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="31" t="s">
+    <row r="219" spans="1:4" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B219" s="32" t="s">
+      <c r="B219" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="C219" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D219" s="34" t="s">
+      <c r="C219" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="33" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4309,7 +4311,7 @@
       <c r="A220" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B220" s="35" t="s">
+      <c r="B220" s="34" t="s">
         <v>215</v>
       </c>
       <c r="C220" s="15" t="s">
@@ -4327,17 +4329,17 @@
         <v>465</v>
       </c>
     </row>
-    <row r="222" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="31" t="s">
+    <row r="222" spans="1:4" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B222" s="32" t="s">
+      <c r="B222" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="C222" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D222" s="34" t="s">
+      <c r="C222" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="33" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4385,54 +4387,60 @@
         <v>465</v>
       </c>
     </row>
-    <row r="227" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="31" t="s">
+    <row r="227" spans="1:4" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B227" s="32" t="s">
+      <c r="B227" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="C227" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D227" s="34" t="s">
+      <c r="C227" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="33" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="228" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="18" t="s">
+    <row r="228" spans="1:4" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C228" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D228" s="21" t="s">
+      <c r="C228" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="33" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="6" t="s">
+    <row r="229" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="6" t="s">
+      <c r="C229" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="C230" s="5" t="s">
-        <v>5</v>
+      <c r="C230" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="33" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191:C192"/>
+    <sheetView tabSelected="1" topLeftCell="C99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3054,15 +3054,15 @@
         <v>465</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>5</v>
+      <c r="C103" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1638,7 +1638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1717,6 +1717,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1934,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102:C103"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2114,25 +2115,25 @@
         <v>487</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3065,25 +3066,25 @@
         <v>465</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+      <c r="C104" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="15" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="501">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1521,6 +1521,15 @@
   </si>
   <si>
     <t>Inclusive high and low</t>
+  </si>
+  <si>
+    <t>Hard, need to cross check again</t>
+  </si>
+  <si>
+    <t>Longest string with repeated characters</t>
+  </si>
+  <si>
+    <t>Without Duplicate characters</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1717,7 +1726,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1935,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2126,18 +2134,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:4" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2159,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2181,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2192,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2203,7 +2214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2225,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2236,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2247,7 +2258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +2269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2269,7 +2280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2639,15 +2650,18 @@
         <v>482</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="26" t="s">
+    <row r="64" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>5</v>
+      <c r="C64" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6404,7 +6418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6415,7 +6429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6426,7 +6440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6437,7 +6451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6448,7 +6462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6459,7 +6473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6470,7 +6484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6481,18 +6495,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="6" t="s">
+    <row r="424" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B424" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="C424" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C424" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D424" s="13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6503,7 +6520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6514,7 +6531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6525,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6536,7 +6553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6547,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6558,7 +6575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6569,7 +6586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
